--- a/create_forecast_basic/future/iplan/Intermediates/240501_pop_2045_iplan.xlsx
+++ b/create_forecast_basic/future/iplan/Intermediates/240501_pop_2045_iplan.xlsx
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>29166.39132970407</v>
+        <v>29604.57812949703</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>12362.68222563683</v>
+        <v>11725.52485603341</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>13243.788961531</v>
+        <v>13442.75953134147</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
